--- a/excel_templates/기초재고_template.xlsx
+++ b/excel_templates/기초재고_template.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFFAD747-81BA-498B-B178-A223889FE661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="38280" yWindow="-7620" windowWidth="21840" windowHeight="37920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="sheet1" state="visible" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -13,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
-    <t>조정일</t>
+    <t>조정일자</t>
   </si>
   <si>
     <t>창고코드</t>
@@ -127,20 +131,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -164,8 +181,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd3d3d3"/>
-        <bgColor rgb="FFd3d3d3"/>
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor rgb="FFD3D3D3"/>
       </patternFill>
     </fill>
   </fills>
@@ -213,7 +230,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,9 +566,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="6" width="20" style="2" customWidth="1"/>
@@ -561,7 +583,7 @@
     <col min="11" max="14" width="20" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -605,7 +627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="19" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -649,7 +671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
@@ -694,7 +716,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/excel_templates/기초재고_template.xlsx
+++ b/excel_templates/기초재고_template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFFAD747-81BA-498B-B178-A223889FE661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271DAB97-6959-400E-8702-9E985C791BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-7620" windowWidth="21840" windowHeight="37920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>조정일자</t>
   </si>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>타입 : 문자 길이 : 50 필수 : False 설명 : 영문/숫자 기준 50자리(최대)를 입력 하세요.</t>
+  </si>
+  <si>
+    <t>사업장코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -567,151 +571,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="3" customWidth="1"/>
-    <col min="9" max="10" width="20" style="4" customWidth="1"/>
-    <col min="11" max="14" width="20" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="7" width="20" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="3" customWidth="1"/>
+    <col min="10" max="11" width="20" style="4" customWidth="1"/>
+    <col min="12" max="15" width="20" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>30</v>
       </c>
     </row>
